--- a/Projektzeitplan.xlsx
+++ b/Projektzeitplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofmannt.tmb18\Documents\GitHub\KE4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0AD15F-8442-47BB-AE71-411386E6B8E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CD842-7C39-4386-8426-6AAAB86AE3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,9 +640,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,12 +653,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -672,9 +663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -698,6 +686,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1055,10 +1052,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1140,7 +1137,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1372,13 +1369,13 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
@@ -1454,8 +1451,8 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" ht="30.75" customHeight="1">
@@ -1501,15 +1498,15 @@
       <c r="O23" s="15"/>
     </row>
     <row r="24" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -1519,43 +1516,43 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
-      <c r="O24" s="42"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="40"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="37" t="s">
@@ -1634,13 +1631,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" ht="31.5">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -1653,43 +1650,43 @@
       <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="41"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:16" ht="31.5">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="38" t="s">
@@ -1704,7 +1701,7 @@
       <c r="E34" s="39">
         <v>43843</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
@@ -1716,22 +1713,22 @@
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="1:16" ht="63">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="45">
         <v>43840</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="45">
         <v>43843</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
@@ -1743,22 +1740,22 @@
       <c r="O35" s="19"/>
     </row>
     <row r="36" spans="1:16" ht="31.5">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="45">
         <v>43840</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="45">
         <v>43843</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
@@ -1770,21 +1767,21 @@
       <c r="O36" s="19"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="45">
         <v>43845</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="63"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
       <c r="J37" s="18"/>
@@ -1795,21 +1792,21 @@
       <c r="O37" s="19"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="45">
         <v>43845</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="63"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
       <c r="J38" s="18"/>
@@ -1820,13 +1817,13 @@
       <c r="O38" s="19"/>
     </row>
     <row r="39" spans="1:16" ht="31.5">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
@@ -1839,13 +1836,13 @@
       <c r="O39" s="19"/>
     </row>
     <row r="40" spans="1:16" ht="31.5">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
@@ -1858,13 +1855,13 @@
       <c r="O40" s="19"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
@@ -1877,13 +1874,13 @@
       <c r="O41" s="19"/>
     </row>
     <row r="42" spans="1:16" ht="31.5">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
@@ -1896,13 +1893,13 @@
       <c r="O42" s="19"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
       <c r="H43" s="39"/>
@@ -1915,17 +1912,17 @@
       <c r="O43" s="19"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -1934,9 +1931,9 @@
       <c r="O44" s="19"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -1951,27 +1948,27 @@
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="41"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="40"/>
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="38" t="s">
@@ -1985,12 +1982,12 @@
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39"/>
-      <c r="G47" s="63"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -2010,7 +2007,7 @@
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="63"/>
+      <c r="G48" s="59"/>
       <c r="H48" s="39"/>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
@@ -2035,7 +2032,7 @@
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="39"/>
-      <c r="G49" s="63"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="39"/>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
@@ -2046,24 +2043,24 @@
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="45">
         <v>43845</v>
       </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="23"/>
@@ -2071,43 +2068,43 @@
       <c r="O50" s="19"/>
     </row>
     <row r="51" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="41"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="40"/>
     </row>
     <row r="53" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="42" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="38"/>
@@ -2145,43 +2142,43 @@
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="41"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="40"/>
     </row>
     <row r="57" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B57" s="38"/>
@@ -2204,9 +2201,9 @@
         <v>69</v>
       </c>
       <c r="B58" s="32"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
       <c r="F58" s="19"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -2214,9 +2211,9 @@
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
     </row>
     <row r="59" spans="1:15" ht="33" customHeight="1">
       <c r="A59" s="34" t="s">
@@ -2238,13 +2235,13 @@
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
       <c r="F60" s="19"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -2274,33 +2271,33 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="41"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="40"/>
     </row>
     <row r="63" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="42" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
-      <c r="F63" s="50"/>
+      <c r="F63" s="47"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -2330,7 +2327,7 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:15" ht="47.25">
+    <row r="65" spans="1:16" ht="47.25">
       <c r="A65" s="34" t="s">
         <v>80</v>
       </c>
@@ -2349,15 +2346,15 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15" ht="31.5">
-      <c r="A66" s="44" t="s">
+    <row r="66" spans="1:16" ht="31.5">
+      <c r="A66" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="51"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="48"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
@@ -2368,44 +2365,44 @@
       <c r="N66" s="19"/>
       <c r="O66" s="19"/>
     </row>
-    <row r="67" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
+    <row r="67" spans="1:16" ht="22.15" customHeight="1">
+      <c r="A67" s="62"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A68" s="40" t="s">
+    <row r="68" spans="1:16" ht="22.15" customHeight="1">
+      <c r="A68" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="41"/>
-    </row>
-    <row r="69" spans="1:15" ht="31.5">
-      <c r="A69" s="52" t="s">
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="40"/>
+    </row>
+    <row r="69" spans="1:16" ht="31.5">
+      <c r="A69" s="49" t="s">
         <v>77</v>
       </c>
       <c r="B69" s="38"/>
@@ -2423,7 +2420,7 @@
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" spans="1:15" ht="31.5">
+    <row r="70" spans="1:16" ht="31.5">
       <c r="A70" s="35" t="s">
         <v>78</v>
       </c>
@@ -2442,45 +2439,69 @@
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
     </row>
-    <row r="71" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A71" s="53" t="s">
+    <row r="71" spans="1:16" ht="22.15" customHeight="1">
+      <c r="A71" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
       <c r="F71" s="23"/>
       <c r="G71" s="19"/>
-      <c r="H71" s="60"/>
+      <c r="H71" s="56"/>
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
       <c r="L71" s="19"/>
-      <c r="M71" s="61"/>
+      <c r="M71" s="57"/>
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="1"/>
+    <row r="72" spans="1:16" ht="22.15" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="P72" s="4"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="P73" s="4"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="P74" s="4"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="P75" s="4"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="P76" s="4"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="P77" s="4"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="P78" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A72:N72"/>
+  <mergeCells count="12">
     <mergeCell ref="A25:N25"/>
     <mergeCell ref="A32:N32"/>
     <mergeCell ref="A67:N67"/>

--- a/Projektzeitplan.xlsx
+++ b/Projektzeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CD842-7C39-4386-8426-6AAAB86AE3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FAE222-9823-41E8-8FFA-7425BDC709E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
   <si>
     <t>Start</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Antriebsritzel konstruieren</t>
   </si>
   <si>
-    <t>Abtriebsritzel konstruieren</t>
-  </si>
-  <si>
     <t>Berechnung der vorhandenen Belastung (Axialkraft und Torsionsmoment)</t>
   </si>
   <si>
@@ -249,12 +246,6 @@
     <t>Gehäuse</t>
   </si>
   <si>
-    <t>Wandstärke und Verrippung</t>
-  </si>
-  <si>
-    <t>Respektabstände</t>
-  </si>
-  <si>
     <t>Konstruktion eines Gehäuserohlings, der für alle Übersetzungsvarianten geeignet ist</t>
   </si>
   <si>
@@ -277,6 +268,12 @@
   </si>
   <si>
     <t xml:space="preserve">alle </t>
+  </si>
+  <si>
+    <t>Abtriebsrad konstruieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frau Langohr</t>
   </si>
 </sst>
 </file>
@@ -397,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -514,15 +511,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -557,7 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,7 +643,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -675,9 +662,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,10 +1039,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1137,8 +1124,8 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>81</v>
+      <c r="C8" s="57" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>0</v>
@@ -1241,7 +1228,9 @@
       <c r="B11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" s="33">
         <v>43845</v>
       </c>
@@ -1266,7 +1255,9 @@
       <c r="B12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="33">
         <v>43845</v>
       </c>
@@ -1288,8 +1279,12 @@
       <c r="A13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="13"/>
@@ -1307,15 +1302,19 @@
       <c r="A14" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1364,8 +1363,12 @@
       <c r="A17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="13"/>
@@ -1383,14 +1386,18 @@
       <c r="A18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="13"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1519,39 +1526,39 @@
       <c r="O24" s="41"/>
     </row>
     <row r="25" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
       <c r="O26" s="40"/>
     </row>
     <row r="27" spans="1:15">
@@ -1650,39 +1657,39 @@
       <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
       <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:16" ht="31.5">
@@ -1701,7 +1708,7 @@
       <c r="E34" s="39">
         <v>43843</v>
       </c>
-      <c r="F34" s="59"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
@@ -1717,7 +1724,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" s="44" t="s">
         <v>33</v>
@@ -1728,7 +1735,7 @@
       <c r="E35" s="45">
         <v>43843</v>
       </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
@@ -1744,7 +1751,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>33</v>
@@ -1755,7 +1762,7 @@
       <c r="E36" s="45">
         <v>43843</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
@@ -1781,7 +1788,7 @@
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="59"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
       <c r="J37" s="18"/>
@@ -1793,7 +1800,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="43" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B38" s="44" t="s">
         <v>34</v>
@@ -1806,7 +1813,7 @@
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="59"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
       <c r="J38" s="18"/>
@@ -1818,14 +1825,18 @@
     </row>
     <row r="39" spans="1:16" ht="31.5">
       <c r="A39" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
+        <v>56</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="39"/>
       <c r="I39" s="39"/>
       <c r="J39" s="18"/>
@@ -1837,16 +1848,20 @@
     </row>
     <row r="40" spans="1:16" ht="31.5">
       <c r="A40" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+        <v>57</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>36</v>
+      </c>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
@@ -1856,16 +1871,20 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
+        <v>58</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
@@ -1875,16 +1894,20 @@
     </row>
     <row r="42" spans="1:16" ht="31.5">
       <c r="A42" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+        <v>59</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>36</v>
+      </c>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
@@ -1894,7 +1917,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -1913,16 +1936,20 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+        <v>61</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>37</v>
+      </c>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -1931,9 +1958,9 @@
       <c r="O44" s="19"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -1948,22 +1975,22 @@
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
       <c r="O46" s="40"/>
       <c r="P46" s="1"/>
     </row>
@@ -1982,7 +2009,7 @@
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39"/>
-      <c r="G47" s="59"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
@@ -2007,7 +2034,7 @@
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="59"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="39"/>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
@@ -2019,7 +2046,7 @@
     </row>
     <row r="49" spans="1:15" ht="22.15" customHeight="1">
       <c r="A49" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>37</v>
@@ -2032,7 +2059,7 @@
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="39"/>
-      <c r="G49" s="59"/>
+      <c r="G49" s="58"/>
       <c r="H49" s="39"/>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
@@ -2046,21 +2073,21 @@
       <c r="A50" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="45">
         <v>43845</v>
       </c>
       <c r="E50" s="45"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="23"/>
@@ -2068,52 +2095,56 @@
       <c r="O50" s="19"/>
     </row>
     <row r="51" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A52" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
+      <c r="A52" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
       <c r="O52" s="40"/>
     </row>
     <row r="53" spans="1:15" ht="22.15" customHeight="1">
       <c r="A53" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
+        <v>64</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="58"/>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
       <c r="K53" s="21"/>
@@ -2124,15 +2155,19 @@
     </row>
     <row r="54" spans="1:15" ht="31.5">
       <c r="A54" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
+        <v>65</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="58"/>
       <c r="I54" s="39"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -2142,53 +2177,57 @@
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A55" s="62"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A56" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
+      <c r="A56" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
       <c r="O56" s="40"/>
     </row>
     <row r="57" spans="1:15" ht="22.15" customHeight="1">
       <c r="A57" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
+        <v>67</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="22"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
+      <c r="I57" s="58"/>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
@@ -2198,26 +2237,30 @@
     </row>
     <row r="58" spans="1:15" ht="21.75" customHeight="1">
       <c r="A58" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="44"/>
+        <v>68</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
       <c r="F58" s="19"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
+      <c r="I58" s="58"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
     </row>
     <row r="59" spans="1:15" ht="33" customHeight="1">
       <c r="A59" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -2236,16 +2279,20 @@
     </row>
     <row r="60" spans="1:15" ht="22.15" customHeight="1">
       <c r="A60" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
+        <v>70</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>37</v>
+      </c>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
       <c r="F60" s="19"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
+      <c r="I60" s="58"/>
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
@@ -2271,194 +2318,176 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="40"/>
+    </row>
+    <row r="63" spans="1:15" ht="47.25">
+      <c r="A63" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="1:15" ht="31.5">
+      <c r="A64" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="40"/>
-    </row>
-    <row r="63" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A63" s="42" t="s">
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+    </row>
+    <row r="65" spans="1:16" ht="22.15" customHeight="1">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" ht="22.15" customHeight="1">
+      <c r="A66" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-    </row>
-    <row r="64" spans="1:15" ht="22.15" customHeight="1">
-      <c r="A64" s="34" t="s">
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="62"/>
+      <c r="O66" s="40"/>
+    </row>
+    <row r="67" spans="1:16" ht="31.5">
+      <c r="A67" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-    </row>
-    <row r="65" spans="1:16" ht="47.25">
-      <c r="A65" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-    </row>
-    <row r="66" spans="1:16" ht="31.5">
-      <c r="A66" s="43" t="s">
+      <c r="B67" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" spans="1:16" ht="31.5">
+      <c r="A68" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-    </row>
-    <row r="67" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A67" s="62"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A68" s="63" t="s">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="1:16" ht="22.15" customHeight="1">
+      <c r="A69" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="40"/>
-    </row>
-    <row r="69" spans="1:16" ht="31.5">
-      <c r="A69" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-    </row>
-    <row r="70" spans="1:16" ht="31.5">
-      <c r="A70" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-    </row>
-    <row r="71" spans="1:16" ht="22.15" customHeight="1">
-      <c r="A71" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-    </row>
-    <row r="72" spans="1:16" ht="22.15" customHeight="1">
+      <c r="B69" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+    </row>
+    <row r="70" spans="1:16" ht="22.15" customHeight="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="P71" s="4"/>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2488,32 +2517,20 @@
       <c r="C76" s="4"/>
       <c r="P76" s="4"/>
     </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="P77" s="4"/>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="P78" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:N25"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A67:N67"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="A66:N66"/>
     <mergeCell ref="A26:N26"/>
     <mergeCell ref="A33:N33"/>
     <mergeCell ref="A46:N46"/>
     <mergeCell ref="A52:N52"/>
     <mergeCell ref="A56:N56"/>
     <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A55:N55"/>
+    <mergeCell ref="A51:N51"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
